--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Slurp1-Chrna7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Slurp1-Chrna7.xlsx
@@ -531,10 +531,10 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1473886666666667</v>
+        <v>0.1473886666666666</v>
       </c>
       <c r="H2">
-        <v>0.442166</v>
+        <v>0.4421659999999999</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,22 +555,22 @@
         <v>0.085173</v>
       </c>
       <c r="O2">
-        <v>0.005202487174048585</v>
+        <v>0.04602678343450817</v>
       </c>
       <c r="P2">
-        <v>0.007783484023172894</v>
+        <v>0.06748706880158217</v>
       </c>
       <c r="Q2">
-        <v>0.004184511635333333</v>
+        <v>0.004184511635333332</v>
       </c>
       <c r="R2">
-        <v>0.037660604718</v>
+        <v>0.03766060471799999</v>
       </c>
       <c r="S2">
-        <v>0.005202487174048585</v>
+        <v>0.04602678343450817</v>
       </c>
       <c r="T2">
-        <v>0.007783484023172894</v>
+        <v>0.06748706880158217</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,10 +593,10 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1473886666666667</v>
+        <v>0.1473886666666666</v>
       </c>
       <c r="H3">
-        <v>0.442166</v>
+        <v>0.4421659999999999</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -611,28 +611,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.428806499999999</v>
+        <v>0.5884455</v>
       </c>
       <c r="N3">
-        <v>10.857613</v>
+        <v>1.176891</v>
       </c>
       <c r="O3">
-        <v>0.9947975128259514</v>
+        <v>0.9539732165654917</v>
       </c>
       <c r="P3">
-        <v>0.9922165159768271</v>
+        <v>0.9325129311984178</v>
       </c>
       <c r="Q3">
-        <v>0.8001445516263332</v>
+        <v>0.08673019765099997</v>
       </c>
       <c r="R3">
-        <v>4.800867309758</v>
+        <v>0.5203811859059999</v>
       </c>
       <c r="S3">
-        <v>0.9947975128259514</v>
+        <v>0.9539732165654917</v>
       </c>
       <c r="T3">
-        <v>0.9922165159768271</v>
+        <v>0.9325129311984178</v>
       </c>
     </row>
   </sheetData>
